--- a/Documents/Cord/Cord Documents/4009 Actual recordd sheet for wet pick-up.xlsx
+++ b/Documents/Cord/Cord Documents/4009 Actual recordd sheet for wet pick-up.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toraygroup01-my.sharepoint.com/personal/paiboon_mongkollert_e5_mail_toray/Documents/Budget Traeback Cord 2022/DCC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A2BE650-5761-4F78-ADD0-14B55A31C159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B3BC1BAF-F7B2-4BE0-BF0D-8872B3845564}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="FM-CS-11(2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -317,8 +311,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -1053,33 +1047,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1092,21 +1062,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1125,12 +1083,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,23 +1095,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1209,15 +1149,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1230,151 +1161,97 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1400,12 +1277,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1413,15 +1284,138 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1479,7 +1473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1531,7 +1525,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1725,730 +1719,730 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B31A5E2-DA4A-4499-9139-19D811EE8CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="20" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.69921875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="4" style="1" customWidth="1"/>
-    <col min="11" max="13" width="11.09765625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.3984375" style="1" customWidth="1"/>
-    <col min="15" max="18" width="11.09765625" style="1" customWidth="1"/>
-    <col min="19" max="256" width="9.09765625" style="1"/>
-    <col min="257" max="257" width="12.8984375" style="1" customWidth="1"/>
-    <col min="258" max="258" width="10.69921875" style="1" customWidth="1"/>
-    <col min="259" max="259" width="12.8984375" style="1" customWidth="1"/>
-    <col min="260" max="260" width="12.09765625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="11.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="1" customWidth="1"/>
+    <col min="15" max="18" width="11.125" style="1" customWidth="1"/>
+    <col min="19" max="256" width="9.125" style="1"/>
+    <col min="257" max="257" width="12.875" style="1" customWidth="1"/>
+    <col min="258" max="258" width="10.75" style="1" customWidth="1"/>
+    <col min="259" max="259" width="12.875" style="1" customWidth="1"/>
+    <col min="260" max="260" width="12.125" style="1" customWidth="1"/>
     <col min="261" max="263" width="11" style="1" customWidth="1"/>
-    <col min="264" max="265" width="10.69921875" style="1" customWidth="1"/>
+    <col min="264" max="265" width="10.75" style="1" customWidth="1"/>
     <col min="266" max="266" width="4" style="1" customWidth="1"/>
-    <col min="267" max="269" width="11.09765625" style="1" customWidth="1"/>
-    <col min="270" max="270" width="11.3984375" style="1" customWidth="1"/>
-    <col min="271" max="274" width="11.09765625" style="1" customWidth="1"/>
-    <col min="275" max="512" width="9.09765625" style="1"/>
-    <col min="513" max="513" width="12.8984375" style="1" customWidth="1"/>
-    <col min="514" max="514" width="10.69921875" style="1" customWidth="1"/>
-    <col min="515" max="515" width="12.8984375" style="1" customWidth="1"/>
-    <col min="516" max="516" width="12.09765625" style="1" customWidth="1"/>
+    <col min="267" max="269" width="11.125" style="1" customWidth="1"/>
+    <col min="270" max="270" width="11.375" style="1" customWidth="1"/>
+    <col min="271" max="274" width="11.125" style="1" customWidth="1"/>
+    <col min="275" max="512" width="9.125" style="1"/>
+    <col min="513" max="513" width="12.875" style="1" customWidth="1"/>
+    <col min="514" max="514" width="10.75" style="1" customWidth="1"/>
+    <col min="515" max="515" width="12.875" style="1" customWidth="1"/>
+    <col min="516" max="516" width="12.125" style="1" customWidth="1"/>
     <col min="517" max="519" width="11" style="1" customWidth="1"/>
-    <col min="520" max="521" width="10.69921875" style="1" customWidth="1"/>
+    <col min="520" max="521" width="10.75" style="1" customWidth="1"/>
     <col min="522" max="522" width="4" style="1" customWidth="1"/>
-    <col min="523" max="525" width="11.09765625" style="1" customWidth="1"/>
-    <col min="526" max="526" width="11.3984375" style="1" customWidth="1"/>
-    <col min="527" max="530" width="11.09765625" style="1" customWidth="1"/>
-    <col min="531" max="768" width="9.09765625" style="1"/>
-    <col min="769" max="769" width="12.8984375" style="1" customWidth="1"/>
-    <col min="770" max="770" width="10.69921875" style="1" customWidth="1"/>
-    <col min="771" max="771" width="12.8984375" style="1" customWidth="1"/>
-    <col min="772" max="772" width="12.09765625" style="1" customWidth="1"/>
+    <col min="523" max="525" width="11.125" style="1" customWidth="1"/>
+    <col min="526" max="526" width="11.375" style="1" customWidth="1"/>
+    <col min="527" max="530" width="11.125" style="1" customWidth="1"/>
+    <col min="531" max="768" width="9.125" style="1"/>
+    <col min="769" max="769" width="12.875" style="1" customWidth="1"/>
+    <col min="770" max="770" width="10.75" style="1" customWidth="1"/>
+    <col min="771" max="771" width="12.875" style="1" customWidth="1"/>
+    <col min="772" max="772" width="12.125" style="1" customWidth="1"/>
     <col min="773" max="775" width="11" style="1" customWidth="1"/>
-    <col min="776" max="777" width="10.69921875" style="1" customWidth="1"/>
+    <col min="776" max="777" width="10.75" style="1" customWidth="1"/>
     <col min="778" max="778" width="4" style="1" customWidth="1"/>
-    <col min="779" max="781" width="11.09765625" style="1" customWidth="1"/>
-    <col min="782" max="782" width="11.3984375" style="1" customWidth="1"/>
-    <col min="783" max="786" width="11.09765625" style="1" customWidth="1"/>
-    <col min="787" max="1024" width="9.09765625" style="1"/>
-    <col min="1025" max="1025" width="12.8984375" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="10.69921875" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="12.8984375" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="12.09765625" style="1" customWidth="1"/>
+    <col min="779" max="781" width="11.125" style="1" customWidth="1"/>
+    <col min="782" max="782" width="11.375" style="1" customWidth="1"/>
+    <col min="783" max="786" width="11.125" style="1" customWidth="1"/>
+    <col min="787" max="1024" width="9.125" style="1"/>
+    <col min="1025" max="1025" width="12.875" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.75" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="12.875" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" style="1" customWidth="1"/>
     <col min="1029" max="1031" width="11" style="1" customWidth="1"/>
-    <col min="1032" max="1033" width="10.69921875" style="1" customWidth="1"/>
+    <col min="1032" max="1033" width="10.75" style="1" customWidth="1"/>
     <col min="1034" max="1034" width="4" style="1" customWidth="1"/>
-    <col min="1035" max="1037" width="11.09765625" style="1" customWidth="1"/>
-    <col min="1038" max="1038" width="11.3984375" style="1" customWidth="1"/>
-    <col min="1039" max="1042" width="11.09765625" style="1" customWidth="1"/>
-    <col min="1043" max="1280" width="9.09765625" style="1"/>
-    <col min="1281" max="1281" width="12.8984375" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="10.69921875" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="12.8984375" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="12.09765625" style="1" customWidth="1"/>
+    <col min="1035" max="1037" width="11.125" style="1" customWidth="1"/>
+    <col min="1038" max="1038" width="11.375" style="1" customWidth="1"/>
+    <col min="1039" max="1042" width="11.125" style="1" customWidth="1"/>
+    <col min="1043" max="1280" width="9.125" style="1"/>
+    <col min="1281" max="1281" width="12.875" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.75" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="12.875" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" style="1" customWidth="1"/>
     <col min="1285" max="1287" width="11" style="1" customWidth="1"/>
-    <col min="1288" max="1289" width="10.69921875" style="1" customWidth="1"/>
+    <col min="1288" max="1289" width="10.75" style="1" customWidth="1"/>
     <col min="1290" max="1290" width="4" style="1" customWidth="1"/>
-    <col min="1291" max="1293" width="11.09765625" style="1" customWidth="1"/>
-    <col min="1294" max="1294" width="11.3984375" style="1" customWidth="1"/>
-    <col min="1295" max="1298" width="11.09765625" style="1" customWidth="1"/>
-    <col min="1299" max="1536" width="9.09765625" style="1"/>
-    <col min="1537" max="1537" width="12.8984375" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="10.69921875" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="12.8984375" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="12.09765625" style="1" customWidth="1"/>
+    <col min="1291" max="1293" width="11.125" style="1" customWidth="1"/>
+    <col min="1294" max="1294" width="11.375" style="1" customWidth="1"/>
+    <col min="1295" max="1298" width="11.125" style="1" customWidth="1"/>
+    <col min="1299" max="1536" width="9.125" style="1"/>
+    <col min="1537" max="1537" width="12.875" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.75" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="12.875" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" style="1" customWidth="1"/>
     <col min="1541" max="1543" width="11" style="1" customWidth="1"/>
-    <col min="1544" max="1545" width="10.69921875" style="1" customWidth="1"/>
+    <col min="1544" max="1545" width="10.75" style="1" customWidth="1"/>
     <col min="1546" max="1546" width="4" style="1" customWidth="1"/>
-    <col min="1547" max="1549" width="11.09765625" style="1" customWidth="1"/>
-    <col min="1550" max="1550" width="11.3984375" style="1" customWidth="1"/>
-    <col min="1551" max="1554" width="11.09765625" style="1" customWidth="1"/>
-    <col min="1555" max="1792" width="9.09765625" style="1"/>
-    <col min="1793" max="1793" width="12.8984375" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="10.69921875" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="12.8984375" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="12.09765625" style="1" customWidth="1"/>
+    <col min="1547" max="1549" width="11.125" style="1" customWidth="1"/>
+    <col min="1550" max="1550" width="11.375" style="1" customWidth="1"/>
+    <col min="1551" max="1554" width="11.125" style="1" customWidth="1"/>
+    <col min="1555" max="1792" width="9.125" style="1"/>
+    <col min="1793" max="1793" width="12.875" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.75" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="12.875" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" style="1" customWidth="1"/>
     <col min="1797" max="1799" width="11" style="1" customWidth="1"/>
-    <col min="1800" max="1801" width="10.69921875" style="1" customWidth="1"/>
+    <col min="1800" max="1801" width="10.75" style="1" customWidth="1"/>
     <col min="1802" max="1802" width="4" style="1" customWidth="1"/>
-    <col min="1803" max="1805" width="11.09765625" style="1" customWidth="1"/>
-    <col min="1806" max="1806" width="11.3984375" style="1" customWidth="1"/>
-    <col min="1807" max="1810" width="11.09765625" style="1" customWidth="1"/>
-    <col min="1811" max="2048" width="9.09765625" style="1"/>
-    <col min="2049" max="2049" width="12.8984375" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="10.69921875" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="12.8984375" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="12.09765625" style="1" customWidth="1"/>
+    <col min="1803" max="1805" width="11.125" style="1" customWidth="1"/>
+    <col min="1806" max="1806" width="11.375" style="1" customWidth="1"/>
+    <col min="1807" max="1810" width="11.125" style="1" customWidth="1"/>
+    <col min="1811" max="2048" width="9.125" style="1"/>
+    <col min="2049" max="2049" width="12.875" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.75" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="12.875" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" style="1" customWidth="1"/>
     <col min="2053" max="2055" width="11" style="1" customWidth="1"/>
-    <col min="2056" max="2057" width="10.69921875" style="1" customWidth="1"/>
+    <col min="2056" max="2057" width="10.75" style="1" customWidth="1"/>
     <col min="2058" max="2058" width="4" style="1" customWidth="1"/>
-    <col min="2059" max="2061" width="11.09765625" style="1" customWidth="1"/>
-    <col min="2062" max="2062" width="11.3984375" style="1" customWidth="1"/>
-    <col min="2063" max="2066" width="11.09765625" style="1" customWidth="1"/>
-    <col min="2067" max="2304" width="9.09765625" style="1"/>
-    <col min="2305" max="2305" width="12.8984375" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="10.69921875" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="12.8984375" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="12.09765625" style="1" customWidth="1"/>
+    <col min="2059" max="2061" width="11.125" style="1" customWidth="1"/>
+    <col min="2062" max="2062" width="11.375" style="1" customWidth="1"/>
+    <col min="2063" max="2066" width="11.125" style="1" customWidth="1"/>
+    <col min="2067" max="2304" width="9.125" style="1"/>
+    <col min="2305" max="2305" width="12.875" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.75" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="12.875" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" style="1" customWidth="1"/>
     <col min="2309" max="2311" width="11" style="1" customWidth="1"/>
-    <col min="2312" max="2313" width="10.69921875" style="1" customWidth="1"/>
+    <col min="2312" max="2313" width="10.75" style="1" customWidth="1"/>
     <col min="2314" max="2314" width="4" style="1" customWidth="1"/>
-    <col min="2315" max="2317" width="11.09765625" style="1" customWidth="1"/>
-    <col min="2318" max="2318" width="11.3984375" style="1" customWidth="1"/>
-    <col min="2319" max="2322" width="11.09765625" style="1" customWidth="1"/>
-    <col min="2323" max="2560" width="9.09765625" style="1"/>
-    <col min="2561" max="2561" width="12.8984375" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="10.69921875" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="12.8984375" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="12.09765625" style="1" customWidth="1"/>
+    <col min="2315" max="2317" width="11.125" style="1" customWidth="1"/>
+    <col min="2318" max="2318" width="11.375" style="1" customWidth="1"/>
+    <col min="2319" max="2322" width="11.125" style="1" customWidth="1"/>
+    <col min="2323" max="2560" width="9.125" style="1"/>
+    <col min="2561" max="2561" width="12.875" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.75" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="12.875" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" style="1" customWidth="1"/>
     <col min="2565" max="2567" width="11" style="1" customWidth="1"/>
-    <col min="2568" max="2569" width="10.69921875" style="1" customWidth="1"/>
+    <col min="2568" max="2569" width="10.75" style="1" customWidth="1"/>
     <col min="2570" max="2570" width="4" style="1" customWidth="1"/>
-    <col min="2571" max="2573" width="11.09765625" style="1" customWidth="1"/>
-    <col min="2574" max="2574" width="11.3984375" style="1" customWidth="1"/>
-    <col min="2575" max="2578" width="11.09765625" style="1" customWidth="1"/>
-    <col min="2579" max="2816" width="9.09765625" style="1"/>
-    <col min="2817" max="2817" width="12.8984375" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="10.69921875" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="12.8984375" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="12.09765625" style="1" customWidth="1"/>
+    <col min="2571" max="2573" width="11.125" style="1" customWidth="1"/>
+    <col min="2574" max="2574" width="11.375" style="1" customWidth="1"/>
+    <col min="2575" max="2578" width="11.125" style="1" customWidth="1"/>
+    <col min="2579" max="2816" width="9.125" style="1"/>
+    <col min="2817" max="2817" width="12.875" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.75" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="12.875" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" style="1" customWidth="1"/>
     <col min="2821" max="2823" width="11" style="1" customWidth="1"/>
-    <col min="2824" max="2825" width="10.69921875" style="1" customWidth="1"/>
+    <col min="2824" max="2825" width="10.75" style="1" customWidth="1"/>
     <col min="2826" max="2826" width="4" style="1" customWidth="1"/>
-    <col min="2827" max="2829" width="11.09765625" style="1" customWidth="1"/>
-    <col min="2830" max="2830" width="11.3984375" style="1" customWidth="1"/>
-    <col min="2831" max="2834" width="11.09765625" style="1" customWidth="1"/>
-    <col min="2835" max="3072" width="9.09765625" style="1"/>
-    <col min="3073" max="3073" width="12.8984375" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="12.8984375" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="12.09765625" style="1" customWidth="1"/>
+    <col min="2827" max="2829" width="11.125" style="1" customWidth="1"/>
+    <col min="2830" max="2830" width="11.375" style="1" customWidth="1"/>
+    <col min="2831" max="2834" width="11.125" style="1" customWidth="1"/>
+    <col min="2835" max="3072" width="9.125" style="1"/>
+    <col min="3073" max="3073" width="12.875" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.75" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="12.875" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" style="1" customWidth="1"/>
     <col min="3077" max="3079" width="11" style="1" customWidth="1"/>
-    <col min="3080" max="3081" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3080" max="3081" width="10.75" style="1" customWidth="1"/>
     <col min="3082" max="3082" width="4" style="1" customWidth="1"/>
-    <col min="3083" max="3085" width="11.09765625" style="1" customWidth="1"/>
-    <col min="3086" max="3086" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3087" max="3090" width="11.09765625" style="1" customWidth="1"/>
-    <col min="3091" max="3328" width="9.09765625" style="1"/>
-    <col min="3329" max="3329" width="12.8984375" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="12.8984375" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="12.09765625" style="1" customWidth="1"/>
+    <col min="3083" max="3085" width="11.125" style="1" customWidth="1"/>
+    <col min="3086" max="3086" width="11.375" style="1" customWidth="1"/>
+    <col min="3087" max="3090" width="11.125" style="1" customWidth="1"/>
+    <col min="3091" max="3328" width="9.125" style="1"/>
+    <col min="3329" max="3329" width="12.875" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.75" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="12.875" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" style="1" customWidth="1"/>
     <col min="3333" max="3335" width="11" style="1" customWidth="1"/>
-    <col min="3336" max="3337" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3336" max="3337" width="10.75" style="1" customWidth="1"/>
     <col min="3338" max="3338" width="4" style="1" customWidth="1"/>
-    <col min="3339" max="3341" width="11.09765625" style="1" customWidth="1"/>
-    <col min="3342" max="3342" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3343" max="3346" width="11.09765625" style="1" customWidth="1"/>
-    <col min="3347" max="3584" width="9.09765625" style="1"/>
-    <col min="3585" max="3585" width="12.8984375" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="12.8984375" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="12.09765625" style="1" customWidth="1"/>
+    <col min="3339" max="3341" width="11.125" style="1" customWidth="1"/>
+    <col min="3342" max="3342" width="11.375" style="1" customWidth="1"/>
+    <col min="3343" max="3346" width="11.125" style="1" customWidth="1"/>
+    <col min="3347" max="3584" width="9.125" style="1"/>
+    <col min="3585" max="3585" width="12.875" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.75" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="12.875" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" style="1" customWidth="1"/>
     <col min="3589" max="3591" width="11" style="1" customWidth="1"/>
-    <col min="3592" max="3593" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3592" max="3593" width="10.75" style="1" customWidth="1"/>
     <col min="3594" max="3594" width="4" style="1" customWidth="1"/>
-    <col min="3595" max="3597" width="11.09765625" style="1" customWidth="1"/>
-    <col min="3598" max="3598" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3599" max="3602" width="11.09765625" style="1" customWidth="1"/>
-    <col min="3603" max="3840" width="9.09765625" style="1"/>
-    <col min="3841" max="3841" width="12.8984375" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="12.8984375" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="12.09765625" style="1" customWidth="1"/>
+    <col min="3595" max="3597" width="11.125" style="1" customWidth="1"/>
+    <col min="3598" max="3598" width="11.375" style="1" customWidth="1"/>
+    <col min="3599" max="3602" width="11.125" style="1" customWidth="1"/>
+    <col min="3603" max="3840" width="9.125" style="1"/>
+    <col min="3841" max="3841" width="12.875" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.75" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="12.875" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" style="1" customWidth="1"/>
     <col min="3845" max="3847" width="11" style="1" customWidth="1"/>
-    <col min="3848" max="3849" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3848" max="3849" width="10.75" style="1" customWidth="1"/>
     <col min="3850" max="3850" width="4" style="1" customWidth="1"/>
-    <col min="3851" max="3853" width="11.09765625" style="1" customWidth="1"/>
-    <col min="3854" max="3854" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3855" max="3858" width="11.09765625" style="1" customWidth="1"/>
-    <col min="3859" max="4096" width="9.09765625" style="1"/>
-    <col min="4097" max="4097" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="10.69921875" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="12.09765625" style="1" customWidth="1"/>
+    <col min="3851" max="3853" width="11.125" style="1" customWidth="1"/>
+    <col min="3854" max="3854" width="11.375" style="1" customWidth="1"/>
+    <col min="3855" max="3858" width="11.125" style="1" customWidth="1"/>
+    <col min="3859" max="4096" width="9.125" style="1"/>
+    <col min="4097" max="4097" width="12.875" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.75" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="12.875" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" style="1" customWidth="1"/>
     <col min="4101" max="4103" width="11" style="1" customWidth="1"/>
-    <col min="4104" max="4105" width="10.69921875" style="1" customWidth="1"/>
+    <col min="4104" max="4105" width="10.75" style="1" customWidth="1"/>
     <col min="4106" max="4106" width="4" style="1" customWidth="1"/>
-    <col min="4107" max="4109" width="11.09765625" style="1" customWidth="1"/>
-    <col min="4110" max="4110" width="11.3984375" style="1" customWidth="1"/>
-    <col min="4111" max="4114" width="11.09765625" style="1" customWidth="1"/>
-    <col min="4115" max="4352" width="9.09765625" style="1"/>
-    <col min="4353" max="4353" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="10.69921875" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="12.09765625" style="1" customWidth="1"/>
+    <col min="4107" max="4109" width="11.125" style="1" customWidth="1"/>
+    <col min="4110" max="4110" width="11.375" style="1" customWidth="1"/>
+    <col min="4111" max="4114" width="11.125" style="1" customWidth="1"/>
+    <col min="4115" max="4352" width="9.125" style="1"/>
+    <col min="4353" max="4353" width="12.875" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.75" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="12.875" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" style="1" customWidth="1"/>
     <col min="4357" max="4359" width="11" style="1" customWidth="1"/>
-    <col min="4360" max="4361" width="10.69921875" style="1" customWidth="1"/>
+    <col min="4360" max="4361" width="10.75" style="1" customWidth="1"/>
     <col min="4362" max="4362" width="4" style="1" customWidth="1"/>
-    <col min="4363" max="4365" width="11.09765625" style="1" customWidth="1"/>
-    <col min="4366" max="4366" width="11.3984375" style="1" customWidth="1"/>
-    <col min="4367" max="4370" width="11.09765625" style="1" customWidth="1"/>
-    <col min="4371" max="4608" width="9.09765625" style="1"/>
-    <col min="4609" max="4609" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="10.69921875" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="12.09765625" style="1" customWidth="1"/>
+    <col min="4363" max="4365" width="11.125" style="1" customWidth="1"/>
+    <col min="4366" max="4366" width="11.375" style="1" customWidth="1"/>
+    <col min="4367" max="4370" width="11.125" style="1" customWidth="1"/>
+    <col min="4371" max="4608" width="9.125" style="1"/>
+    <col min="4609" max="4609" width="12.875" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.75" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="12.875" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" style="1" customWidth="1"/>
     <col min="4613" max="4615" width="11" style="1" customWidth="1"/>
-    <col min="4616" max="4617" width="10.69921875" style="1" customWidth="1"/>
+    <col min="4616" max="4617" width="10.75" style="1" customWidth="1"/>
     <col min="4618" max="4618" width="4" style="1" customWidth="1"/>
-    <col min="4619" max="4621" width="11.09765625" style="1" customWidth="1"/>
-    <col min="4622" max="4622" width="11.3984375" style="1" customWidth="1"/>
-    <col min="4623" max="4626" width="11.09765625" style="1" customWidth="1"/>
-    <col min="4627" max="4864" width="9.09765625" style="1"/>
-    <col min="4865" max="4865" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="10.69921875" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="12.09765625" style="1" customWidth="1"/>
+    <col min="4619" max="4621" width="11.125" style="1" customWidth="1"/>
+    <col min="4622" max="4622" width="11.375" style="1" customWidth="1"/>
+    <col min="4623" max="4626" width="11.125" style="1" customWidth="1"/>
+    <col min="4627" max="4864" width="9.125" style="1"/>
+    <col min="4865" max="4865" width="12.875" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.75" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="12.875" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" style="1" customWidth="1"/>
     <col min="4869" max="4871" width="11" style="1" customWidth="1"/>
-    <col min="4872" max="4873" width="10.69921875" style="1" customWidth="1"/>
+    <col min="4872" max="4873" width="10.75" style="1" customWidth="1"/>
     <col min="4874" max="4874" width="4" style="1" customWidth="1"/>
-    <col min="4875" max="4877" width="11.09765625" style="1" customWidth="1"/>
-    <col min="4878" max="4878" width="11.3984375" style="1" customWidth="1"/>
-    <col min="4879" max="4882" width="11.09765625" style="1" customWidth="1"/>
-    <col min="4883" max="5120" width="9.09765625" style="1"/>
-    <col min="5121" max="5121" width="12.8984375" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="10.69921875" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="12.8984375" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="12.09765625" style="1" customWidth="1"/>
+    <col min="4875" max="4877" width="11.125" style="1" customWidth="1"/>
+    <col min="4878" max="4878" width="11.375" style="1" customWidth="1"/>
+    <col min="4879" max="4882" width="11.125" style="1" customWidth="1"/>
+    <col min="4883" max="5120" width="9.125" style="1"/>
+    <col min="5121" max="5121" width="12.875" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.75" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="12.875" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" style="1" customWidth="1"/>
     <col min="5125" max="5127" width="11" style="1" customWidth="1"/>
-    <col min="5128" max="5129" width="10.69921875" style="1" customWidth="1"/>
+    <col min="5128" max="5129" width="10.75" style="1" customWidth="1"/>
     <col min="5130" max="5130" width="4" style="1" customWidth="1"/>
-    <col min="5131" max="5133" width="11.09765625" style="1" customWidth="1"/>
-    <col min="5134" max="5134" width="11.3984375" style="1" customWidth="1"/>
-    <col min="5135" max="5138" width="11.09765625" style="1" customWidth="1"/>
-    <col min="5139" max="5376" width="9.09765625" style="1"/>
-    <col min="5377" max="5377" width="12.8984375" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="10.69921875" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="12.8984375" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="12.09765625" style="1" customWidth="1"/>
+    <col min="5131" max="5133" width="11.125" style="1" customWidth="1"/>
+    <col min="5134" max="5134" width="11.375" style="1" customWidth="1"/>
+    <col min="5135" max="5138" width="11.125" style="1" customWidth="1"/>
+    <col min="5139" max="5376" width="9.125" style="1"/>
+    <col min="5377" max="5377" width="12.875" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.75" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="12.875" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" style="1" customWidth="1"/>
     <col min="5381" max="5383" width="11" style="1" customWidth="1"/>
-    <col min="5384" max="5385" width="10.69921875" style="1" customWidth="1"/>
+    <col min="5384" max="5385" width="10.75" style="1" customWidth="1"/>
     <col min="5386" max="5386" width="4" style="1" customWidth="1"/>
-    <col min="5387" max="5389" width="11.09765625" style="1" customWidth="1"/>
-    <col min="5390" max="5390" width="11.3984375" style="1" customWidth="1"/>
-    <col min="5391" max="5394" width="11.09765625" style="1" customWidth="1"/>
-    <col min="5395" max="5632" width="9.09765625" style="1"/>
-    <col min="5633" max="5633" width="12.8984375" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="10.69921875" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="12.8984375" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="12.09765625" style="1" customWidth="1"/>
+    <col min="5387" max="5389" width="11.125" style="1" customWidth="1"/>
+    <col min="5390" max="5390" width="11.375" style="1" customWidth="1"/>
+    <col min="5391" max="5394" width="11.125" style="1" customWidth="1"/>
+    <col min="5395" max="5632" width="9.125" style="1"/>
+    <col min="5633" max="5633" width="12.875" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.75" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="12.875" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" style="1" customWidth="1"/>
     <col min="5637" max="5639" width="11" style="1" customWidth="1"/>
-    <col min="5640" max="5641" width="10.69921875" style="1" customWidth="1"/>
+    <col min="5640" max="5641" width="10.75" style="1" customWidth="1"/>
     <col min="5642" max="5642" width="4" style="1" customWidth="1"/>
-    <col min="5643" max="5645" width="11.09765625" style="1" customWidth="1"/>
-    <col min="5646" max="5646" width="11.3984375" style="1" customWidth="1"/>
-    <col min="5647" max="5650" width="11.09765625" style="1" customWidth="1"/>
-    <col min="5651" max="5888" width="9.09765625" style="1"/>
-    <col min="5889" max="5889" width="12.8984375" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="10.69921875" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="12.8984375" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="12.09765625" style="1" customWidth="1"/>
+    <col min="5643" max="5645" width="11.125" style="1" customWidth="1"/>
+    <col min="5646" max="5646" width="11.375" style="1" customWidth="1"/>
+    <col min="5647" max="5650" width="11.125" style="1" customWidth="1"/>
+    <col min="5651" max="5888" width="9.125" style="1"/>
+    <col min="5889" max="5889" width="12.875" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.75" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="12.875" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" style="1" customWidth="1"/>
     <col min="5893" max="5895" width="11" style="1" customWidth="1"/>
-    <col min="5896" max="5897" width="10.69921875" style="1" customWidth="1"/>
+    <col min="5896" max="5897" width="10.75" style="1" customWidth="1"/>
     <col min="5898" max="5898" width="4" style="1" customWidth="1"/>
-    <col min="5899" max="5901" width="11.09765625" style="1" customWidth="1"/>
-    <col min="5902" max="5902" width="11.3984375" style="1" customWidth="1"/>
-    <col min="5903" max="5906" width="11.09765625" style="1" customWidth="1"/>
-    <col min="5907" max="6144" width="9.09765625" style="1"/>
-    <col min="6145" max="6145" width="12.8984375" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="10.69921875" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="12.8984375" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="12.09765625" style="1" customWidth="1"/>
+    <col min="5899" max="5901" width="11.125" style="1" customWidth="1"/>
+    <col min="5902" max="5902" width="11.375" style="1" customWidth="1"/>
+    <col min="5903" max="5906" width="11.125" style="1" customWidth="1"/>
+    <col min="5907" max="6144" width="9.125" style="1"/>
+    <col min="6145" max="6145" width="12.875" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.75" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="12.875" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" style="1" customWidth="1"/>
     <col min="6149" max="6151" width="11" style="1" customWidth="1"/>
-    <col min="6152" max="6153" width="10.69921875" style="1" customWidth="1"/>
+    <col min="6152" max="6153" width="10.75" style="1" customWidth="1"/>
     <col min="6154" max="6154" width="4" style="1" customWidth="1"/>
-    <col min="6155" max="6157" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6158" max="6158" width="11.3984375" style="1" customWidth="1"/>
-    <col min="6159" max="6162" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6163" max="6400" width="9.09765625" style="1"/>
-    <col min="6401" max="6401" width="12.8984375" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="10.69921875" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="12.8984375" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6155" max="6157" width="11.125" style="1" customWidth="1"/>
+    <col min="6158" max="6158" width="11.375" style="1" customWidth="1"/>
+    <col min="6159" max="6162" width="11.125" style="1" customWidth="1"/>
+    <col min="6163" max="6400" width="9.125" style="1"/>
+    <col min="6401" max="6401" width="12.875" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.75" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="12.875" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" style="1" customWidth="1"/>
     <col min="6405" max="6407" width="11" style="1" customWidth="1"/>
-    <col min="6408" max="6409" width="10.69921875" style="1" customWidth="1"/>
+    <col min="6408" max="6409" width="10.75" style="1" customWidth="1"/>
     <col min="6410" max="6410" width="4" style="1" customWidth="1"/>
-    <col min="6411" max="6413" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6414" max="6414" width="11.3984375" style="1" customWidth="1"/>
-    <col min="6415" max="6418" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6419" max="6656" width="9.09765625" style="1"/>
-    <col min="6657" max="6657" width="12.8984375" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="10.69921875" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="12.8984375" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6411" max="6413" width="11.125" style="1" customWidth="1"/>
+    <col min="6414" max="6414" width="11.375" style="1" customWidth="1"/>
+    <col min="6415" max="6418" width="11.125" style="1" customWidth="1"/>
+    <col min="6419" max="6656" width="9.125" style="1"/>
+    <col min="6657" max="6657" width="12.875" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.75" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="12.875" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" style="1" customWidth="1"/>
     <col min="6661" max="6663" width="11" style="1" customWidth="1"/>
-    <col min="6664" max="6665" width="10.69921875" style="1" customWidth="1"/>
+    <col min="6664" max="6665" width="10.75" style="1" customWidth="1"/>
     <col min="6666" max="6666" width="4" style="1" customWidth="1"/>
-    <col min="6667" max="6669" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6670" max="6670" width="11.3984375" style="1" customWidth="1"/>
-    <col min="6671" max="6674" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6675" max="6912" width="9.09765625" style="1"/>
-    <col min="6913" max="6913" width="12.8984375" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="10.69921875" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="12.8984375" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6667" max="6669" width="11.125" style="1" customWidth="1"/>
+    <col min="6670" max="6670" width="11.375" style="1" customWidth="1"/>
+    <col min="6671" max="6674" width="11.125" style="1" customWidth="1"/>
+    <col min="6675" max="6912" width="9.125" style="1"/>
+    <col min="6913" max="6913" width="12.875" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.75" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="12.875" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" style="1" customWidth="1"/>
     <col min="6917" max="6919" width="11" style="1" customWidth="1"/>
-    <col min="6920" max="6921" width="10.69921875" style="1" customWidth="1"/>
+    <col min="6920" max="6921" width="10.75" style="1" customWidth="1"/>
     <col min="6922" max="6922" width="4" style="1" customWidth="1"/>
-    <col min="6923" max="6925" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6926" max="6926" width="11.3984375" style="1" customWidth="1"/>
-    <col min="6927" max="6930" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6931" max="7168" width="9.09765625" style="1"/>
-    <col min="7169" max="7169" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6923" max="6925" width="11.125" style="1" customWidth="1"/>
+    <col min="6926" max="6926" width="11.375" style="1" customWidth="1"/>
+    <col min="6927" max="6930" width="11.125" style="1" customWidth="1"/>
+    <col min="6931" max="7168" width="9.125" style="1"/>
+    <col min="7169" max="7169" width="12.875" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.75" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="12.875" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" style="1" customWidth="1"/>
     <col min="7173" max="7175" width="11" style="1" customWidth="1"/>
-    <col min="7176" max="7177" width="10.69921875" style="1" customWidth="1"/>
+    <col min="7176" max="7177" width="10.75" style="1" customWidth="1"/>
     <col min="7178" max="7178" width="4" style="1" customWidth="1"/>
-    <col min="7179" max="7181" width="11.09765625" style="1" customWidth="1"/>
-    <col min="7182" max="7182" width="11.3984375" style="1" customWidth="1"/>
-    <col min="7183" max="7186" width="11.09765625" style="1" customWidth="1"/>
-    <col min="7187" max="7424" width="9.09765625" style="1"/>
-    <col min="7425" max="7425" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7179" max="7181" width="11.125" style="1" customWidth="1"/>
+    <col min="7182" max="7182" width="11.375" style="1" customWidth="1"/>
+    <col min="7183" max="7186" width="11.125" style="1" customWidth="1"/>
+    <col min="7187" max="7424" width="9.125" style="1"/>
+    <col min="7425" max="7425" width="12.875" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.75" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="12.875" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" style="1" customWidth="1"/>
     <col min="7429" max="7431" width="11" style="1" customWidth="1"/>
-    <col min="7432" max="7433" width="10.69921875" style="1" customWidth="1"/>
+    <col min="7432" max="7433" width="10.75" style="1" customWidth="1"/>
     <col min="7434" max="7434" width="4" style="1" customWidth="1"/>
-    <col min="7435" max="7437" width="11.09765625" style="1" customWidth="1"/>
-    <col min="7438" max="7438" width="11.3984375" style="1" customWidth="1"/>
-    <col min="7439" max="7442" width="11.09765625" style="1" customWidth="1"/>
-    <col min="7443" max="7680" width="9.09765625" style="1"/>
-    <col min="7681" max="7681" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7435" max="7437" width="11.125" style="1" customWidth="1"/>
+    <col min="7438" max="7438" width="11.375" style="1" customWidth="1"/>
+    <col min="7439" max="7442" width="11.125" style="1" customWidth="1"/>
+    <col min="7443" max="7680" width="9.125" style="1"/>
+    <col min="7681" max="7681" width="12.875" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.75" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="12.875" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" style="1" customWidth="1"/>
     <col min="7685" max="7687" width="11" style="1" customWidth="1"/>
-    <col min="7688" max="7689" width="10.69921875" style="1" customWidth="1"/>
+    <col min="7688" max="7689" width="10.75" style="1" customWidth="1"/>
     <col min="7690" max="7690" width="4" style="1" customWidth="1"/>
-    <col min="7691" max="7693" width="11.09765625" style="1" customWidth="1"/>
-    <col min="7694" max="7694" width="11.3984375" style="1" customWidth="1"/>
-    <col min="7695" max="7698" width="11.09765625" style="1" customWidth="1"/>
-    <col min="7699" max="7936" width="9.09765625" style="1"/>
-    <col min="7937" max="7937" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7691" max="7693" width="11.125" style="1" customWidth="1"/>
+    <col min="7694" max="7694" width="11.375" style="1" customWidth="1"/>
+    <col min="7695" max="7698" width="11.125" style="1" customWidth="1"/>
+    <col min="7699" max="7936" width="9.125" style="1"/>
+    <col min="7937" max="7937" width="12.875" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.75" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="12.875" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" style="1" customWidth="1"/>
     <col min="7941" max="7943" width="11" style="1" customWidth="1"/>
-    <col min="7944" max="7945" width="10.69921875" style="1" customWidth="1"/>
+    <col min="7944" max="7945" width="10.75" style="1" customWidth="1"/>
     <col min="7946" max="7946" width="4" style="1" customWidth="1"/>
-    <col min="7947" max="7949" width="11.09765625" style="1" customWidth="1"/>
-    <col min="7950" max="7950" width="11.3984375" style="1" customWidth="1"/>
-    <col min="7951" max="7954" width="11.09765625" style="1" customWidth="1"/>
-    <col min="7955" max="8192" width="9.09765625" style="1"/>
-    <col min="8193" max="8193" width="12.8984375" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="10.69921875" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="12.8984375" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7947" max="7949" width="11.125" style="1" customWidth="1"/>
+    <col min="7950" max="7950" width="11.375" style="1" customWidth="1"/>
+    <col min="7951" max="7954" width="11.125" style="1" customWidth="1"/>
+    <col min="7955" max="8192" width="9.125" style="1"/>
+    <col min="8193" max="8193" width="12.875" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.75" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="12.875" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" style="1" customWidth="1"/>
     <col min="8197" max="8199" width="11" style="1" customWidth="1"/>
-    <col min="8200" max="8201" width="10.69921875" style="1" customWidth="1"/>
+    <col min="8200" max="8201" width="10.75" style="1" customWidth="1"/>
     <col min="8202" max="8202" width="4" style="1" customWidth="1"/>
-    <col min="8203" max="8205" width="11.09765625" style="1" customWidth="1"/>
-    <col min="8206" max="8206" width="11.3984375" style="1" customWidth="1"/>
-    <col min="8207" max="8210" width="11.09765625" style="1" customWidth="1"/>
-    <col min="8211" max="8448" width="9.09765625" style="1"/>
-    <col min="8449" max="8449" width="12.8984375" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="10.69921875" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="12.8984375" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="12.09765625" style="1" customWidth="1"/>
+    <col min="8203" max="8205" width="11.125" style="1" customWidth="1"/>
+    <col min="8206" max="8206" width="11.375" style="1" customWidth="1"/>
+    <col min="8207" max="8210" width="11.125" style="1" customWidth="1"/>
+    <col min="8211" max="8448" width="9.125" style="1"/>
+    <col min="8449" max="8449" width="12.875" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.75" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="12.875" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" style="1" customWidth="1"/>
     <col min="8453" max="8455" width="11" style="1" customWidth="1"/>
-    <col min="8456" max="8457" width="10.69921875" style="1" customWidth="1"/>
+    <col min="8456" max="8457" width="10.75" style="1" customWidth="1"/>
     <col min="8458" max="8458" width="4" style="1" customWidth="1"/>
-    <col min="8459" max="8461" width="11.09765625" style="1" customWidth="1"/>
-    <col min="8462" max="8462" width="11.3984375" style="1" customWidth="1"/>
-    <col min="8463" max="8466" width="11.09765625" style="1" customWidth="1"/>
-    <col min="8467" max="8704" width="9.09765625" style="1"/>
-    <col min="8705" max="8705" width="12.8984375" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="10.69921875" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="12.8984375" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="12.09765625" style="1" customWidth="1"/>
+    <col min="8459" max="8461" width="11.125" style="1" customWidth="1"/>
+    <col min="8462" max="8462" width="11.375" style="1" customWidth="1"/>
+    <col min="8463" max="8466" width="11.125" style="1" customWidth="1"/>
+    <col min="8467" max="8704" width="9.125" style="1"/>
+    <col min="8705" max="8705" width="12.875" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.75" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="12.875" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" style="1" customWidth="1"/>
     <col min="8709" max="8711" width="11" style="1" customWidth="1"/>
-    <col min="8712" max="8713" width="10.69921875" style="1" customWidth="1"/>
+    <col min="8712" max="8713" width="10.75" style="1" customWidth="1"/>
     <col min="8714" max="8714" width="4" style="1" customWidth="1"/>
-    <col min="8715" max="8717" width="11.09765625" style="1" customWidth="1"/>
-    <col min="8718" max="8718" width="11.3984375" style="1" customWidth="1"/>
-    <col min="8719" max="8722" width="11.09765625" style="1" customWidth="1"/>
-    <col min="8723" max="8960" width="9.09765625" style="1"/>
-    <col min="8961" max="8961" width="12.8984375" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="10.69921875" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="12.8984375" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="12.09765625" style="1" customWidth="1"/>
+    <col min="8715" max="8717" width="11.125" style="1" customWidth="1"/>
+    <col min="8718" max="8718" width="11.375" style="1" customWidth="1"/>
+    <col min="8719" max="8722" width="11.125" style="1" customWidth="1"/>
+    <col min="8723" max="8960" width="9.125" style="1"/>
+    <col min="8961" max="8961" width="12.875" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.75" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="12.875" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" style="1" customWidth="1"/>
     <col min="8965" max="8967" width="11" style="1" customWidth="1"/>
-    <col min="8968" max="8969" width="10.69921875" style="1" customWidth="1"/>
+    <col min="8968" max="8969" width="10.75" style="1" customWidth="1"/>
     <col min="8970" max="8970" width="4" style="1" customWidth="1"/>
-    <col min="8971" max="8973" width="11.09765625" style="1" customWidth="1"/>
-    <col min="8974" max="8974" width="11.3984375" style="1" customWidth="1"/>
-    <col min="8975" max="8978" width="11.09765625" style="1" customWidth="1"/>
-    <col min="8979" max="9216" width="9.09765625" style="1"/>
-    <col min="9217" max="9217" width="12.8984375" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="10.69921875" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="12.8984375" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="12.09765625" style="1" customWidth="1"/>
+    <col min="8971" max="8973" width="11.125" style="1" customWidth="1"/>
+    <col min="8974" max="8974" width="11.375" style="1" customWidth="1"/>
+    <col min="8975" max="8978" width="11.125" style="1" customWidth="1"/>
+    <col min="8979" max="9216" width="9.125" style="1"/>
+    <col min="9217" max="9217" width="12.875" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.75" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="12.875" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" style="1" customWidth="1"/>
     <col min="9221" max="9223" width="11" style="1" customWidth="1"/>
-    <col min="9224" max="9225" width="10.69921875" style="1" customWidth="1"/>
+    <col min="9224" max="9225" width="10.75" style="1" customWidth="1"/>
     <col min="9226" max="9226" width="4" style="1" customWidth="1"/>
-    <col min="9227" max="9229" width="11.09765625" style="1" customWidth="1"/>
-    <col min="9230" max="9230" width="11.3984375" style="1" customWidth="1"/>
-    <col min="9231" max="9234" width="11.09765625" style="1" customWidth="1"/>
-    <col min="9235" max="9472" width="9.09765625" style="1"/>
-    <col min="9473" max="9473" width="12.8984375" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="10.69921875" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="12.8984375" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="12.09765625" style="1" customWidth="1"/>
+    <col min="9227" max="9229" width="11.125" style="1" customWidth="1"/>
+    <col min="9230" max="9230" width="11.375" style="1" customWidth="1"/>
+    <col min="9231" max="9234" width="11.125" style="1" customWidth="1"/>
+    <col min="9235" max="9472" width="9.125" style="1"/>
+    <col min="9473" max="9473" width="12.875" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.75" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="12.875" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" style="1" customWidth="1"/>
     <col min="9477" max="9479" width="11" style="1" customWidth="1"/>
-    <col min="9480" max="9481" width="10.69921875" style="1" customWidth="1"/>
+    <col min="9480" max="9481" width="10.75" style="1" customWidth="1"/>
     <col min="9482" max="9482" width="4" style="1" customWidth="1"/>
-    <col min="9483" max="9485" width="11.09765625" style="1" customWidth="1"/>
-    <col min="9486" max="9486" width="11.3984375" style="1" customWidth="1"/>
-    <col min="9487" max="9490" width="11.09765625" style="1" customWidth="1"/>
-    <col min="9491" max="9728" width="9.09765625" style="1"/>
-    <col min="9729" max="9729" width="12.8984375" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="10.69921875" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="12.8984375" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="12.09765625" style="1" customWidth="1"/>
+    <col min="9483" max="9485" width="11.125" style="1" customWidth="1"/>
+    <col min="9486" max="9486" width="11.375" style="1" customWidth="1"/>
+    <col min="9487" max="9490" width="11.125" style="1" customWidth="1"/>
+    <col min="9491" max="9728" width="9.125" style="1"/>
+    <col min="9729" max="9729" width="12.875" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.75" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="12.875" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" style="1" customWidth="1"/>
     <col min="9733" max="9735" width="11" style="1" customWidth="1"/>
-    <col min="9736" max="9737" width="10.69921875" style="1" customWidth="1"/>
+    <col min="9736" max="9737" width="10.75" style="1" customWidth="1"/>
     <col min="9738" max="9738" width="4" style="1" customWidth="1"/>
-    <col min="9739" max="9741" width="11.09765625" style="1" customWidth="1"/>
-    <col min="9742" max="9742" width="11.3984375" style="1" customWidth="1"/>
-    <col min="9743" max="9746" width="11.09765625" style="1" customWidth="1"/>
-    <col min="9747" max="9984" width="9.09765625" style="1"/>
-    <col min="9985" max="9985" width="12.8984375" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="10.69921875" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="12.8984375" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="12.09765625" style="1" customWidth="1"/>
+    <col min="9739" max="9741" width="11.125" style="1" customWidth="1"/>
+    <col min="9742" max="9742" width="11.375" style="1" customWidth="1"/>
+    <col min="9743" max="9746" width="11.125" style="1" customWidth="1"/>
+    <col min="9747" max="9984" width="9.125" style="1"/>
+    <col min="9985" max="9985" width="12.875" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.75" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="12.875" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" style="1" customWidth="1"/>
     <col min="9989" max="9991" width="11" style="1" customWidth="1"/>
-    <col min="9992" max="9993" width="10.69921875" style="1" customWidth="1"/>
+    <col min="9992" max="9993" width="10.75" style="1" customWidth="1"/>
     <col min="9994" max="9994" width="4" style="1" customWidth="1"/>
-    <col min="9995" max="9997" width="11.09765625" style="1" customWidth="1"/>
-    <col min="9998" max="9998" width="11.3984375" style="1" customWidth="1"/>
-    <col min="9999" max="10002" width="11.09765625" style="1" customWidth="1"/>
-    <col min="10003" max="10240" width="9.09765625" style="1"/>
-    <col min="10241" max="10241" width="12.8984375" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="10.69921875" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="12.8984375" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="12.09765625" style="1" customWidth="1"/>
+    <col min="9995" max="9997" width="11.125" style="1" customWidth="1"/>
+    <col min="9998" max="9998" width="11.375" style="1" customWidth="1"/>
+    <col min="9999" max="10002" width="11.125" style="1" customWidth="1"/>
+    <col min="10003" max="10240" width="9.125" style="1"/>
+    <col min="10241" max="10241" width="12.875" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.75" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="12.875" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" style="1" customWidth="1"/>
     <col min="10245" max="10247" width="11" style="1" customWidth="1"/>
-    <col min="10248" max="10249" width="10.69921875" style="1" customWidth="1"/>
+    <col min="10248" max="10249" width="10.75" style="1" customWidth="1"/>
     <col min="10250" max="10250" width="4" style="1" customWidth="1"/>
-    <col min="10251" max="10253" width="11.09765625" style="1" customWidth="1"/>
-    <col min="10254" max="10254" width="11.3984375" style="1" customWidth="1"/>
-    <col min="10255" max="10258" width="11.09765625" style="1" customWidth="1"/>
-    <col min="10259" max="10496" width="9.09765625" style="1"/>
-    <col min="10497" max="10497" width="12.8984375" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="10.69921875" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="12.8984375" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="12.09765625" style="1" customWidth="1"/>
+    <col min="10251" max="10253" width="11.125" style="1" customWidth="1"/>
+    <col min="10254" max="10254" width="11.375" style="1" customWidth="1"/>
+    <col min="10255" max="10258" width="11.125" style="1" customWidth="1"/>
+    <col min="10259" max="10496" width="9.125" style="1"/>
+    <col min="10497" max="10497" width="12.875" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.75" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="12.875" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" style="1" customWidth="1"/>
     <col min="10501" max="10503" width="11" style="1" customWidth="1"/>
-    <col min="10504" max="10505" width="10.69921875" style="1" customWidth="1"/>
+    <col min="10504" max="10505" width="10.75" style="1" customWidth="1"/>
     <col min="10506" max="10506" width="4" style="1" customWidth="1"/>
-    <col min="10507" max="10509" width="11.09765625" style="1" customWidth="1"/>
-    <col min="10510" max="10510" width="11.3984375" style="1" customWidth="1"/>
-    <col min="10511" max="10514" width="11.09765625" style="1" customWidth="1"/>
-    <col min="10515" max="10752" width="9.09765625" style="1"/>
-    <col min="10753" max="10753" width="12.8984375" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="10.69921875" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="12.8984375" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="12.09765625" style="1" customWidth="1"/>
+    <col min="10507" max="10509" width="11.125" style="1" customWidth="1"/>
+    <col min="10510" max="10510" width="11.375" style="1" customWidth="1"/>
+    <col min="10511" max="10514" width="11.125" style="1" customWidth="1"/>
+    <col min="10515" max="10752" width="9.125" style="1"/>
+    <col min="10753" max="10753" width="12.875" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.75" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="12.875" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" style="1" customWidth="1"/>
     <col min="10757" max="10759" width="11" style="1" customWidth="1"/>
-    <col min="10760" max="10761" width="10.69921875" style="1" customWidth="1"/>
+    <col min="10760" max="10761" width="10.75" style="1" customWidth="1"/>
     <col min="10762" max="10762" width="4" style="1" customWidth="1"/>
-    <col min="10763" max="10765" width="11.09765625" style="1" customWidth="1"/>
-    <col min="10766" max="10766" width="11.3984375" style="1" customWidth="1"/>
-    <col min="10767" max="10770" width="11.09765625" style="1" customWidth="1"/>
-    <col min="10771" max="11008" width="9.09765625" style="1"/>
-    <col min="11009" max="11009" width="12.8984375" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="10.69921875" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="12.8984375" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="12.09765625" style="1" customWidth="1"/>
+    <col min="10763" max="10765" width="11.125" style="1" customWidth="1"/>
+    <col min="10766" max="10766" width="11.375" style="1" customWidth="1"/>
+    <col min="10767" max="10770" width="11.125" style="1" customWidth="1"/>
+    <col min="10771" max="11008" width="9.125" style="1"/>
+    <col min="11009" max="11009" width="12.875" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.75" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="12.875" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" style="1" customWidth="1"/>
     <col min="11013" max="11015" width="11" style="1" customWidth="1"/>
-    <col min="11016" max="11017" width="10.69921875" style="1" customWidth="1"/>
+    <col min="11016" max="11017" width="10.75" style="1" customWidth="1"/>
     <col min="11018" max="11018" width="4" style="1" customWidth="1"/>
-    <col min="11019" max="11021" width="11.09765625" style="1" customWidth="1"/>
-    <col min="11022" max="11022" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11023" max="11026" width="11.09765625" style="1" customWidth="1"/>
-    <col min="11027" max="11264" width="9.09765625" style="1"/>
-    <col min="11265" max="11265" width="12.8984375" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="10.69921875" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="12.8984375" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="12.09765625" style="1" customWidth="1"/>
+    <col min="11019" max="11021" width="11.125" style="1" customWidth="1"/>
+    <col min="11022" max="11022" width="11.375" style="1" customWidth="1"/>
+    <col min="11023" max="11026" width="11.125" style="1" customWidth="1"/>
+    <col min="11027" max="11264" width="9.125" style="1"/>
+    <col min="11265" max="11265" width="12.875" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.75" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="12.875" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" style="1" customWidth="1"/>
     <col min="11269" max="11271" width="11" style="1" customWidth="1"/>
-    <col min="11272" max="11273" width="10.69921875" style="1" customWidth="1"/>
+    <col min="11272" max="11273" width="10.75" style="1" customWidth="1"/>
     <col min="11274" max="11274" width="4" style="1" customWidth="1"/>
-    <col min="11275" max="11277" width="11.09765625" style="1" customWidth="1"/>
-    <col min="11278" max="11278" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11279" max="11282" width="11.09765625" style="1" customWidth="1"/>
-    <col min="11283" max="11520" width="9.09765625" style="1"/>
-    <col min="11521" max="11521" width="12.8984375" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="10.69921875" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="12.8984375" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="12.09765625" style="1" customWidth="1"/>
+    <col min="11275" max="11277" width="11.125" style="1" customWidth="1"/>
+    <col min="11278" max="11278" width="11.375" style="1" customWidth="1"/>
+    <col min="11279" max="11282" width="11.125" style="1" customWidth="1"/>
+    <col min="11283" max="11520" width="9.125" style="1"/>
+    <col min="11521" max="11521" width="12.875" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.75" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="12.875" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" style="1" customWidth="1"/>
     <col min="11525" max="11527" width="11" style="1" customWidth="1"/>
-    <col min="11528" max="11529" width="10.69921875" style="1" customWidth="1"/>
+    <col min="11528" max="11529" width="10.75" style="1" customWidth="1"/>
     <col min="11530" max="11530" width="4" style="1" customWidth="1"/>
-    <col min="11531" max="11533" width="11.09765625" style="1" customWidth="1"/>
-    <col min="11534" max="11534" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11535" max="11538" width="11.09765625" style="1" customWidth="1"/>
-    <col min="11539" max="11776" width="9.09765625" style="1"/>
-    <col min="11777" max="11777" width="12.8984375" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="10.69921875" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="12.8984375" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="12.09765625" style="1" customWidth="1"/>
+    <col min="11531" max="11533" width="11.125" style="1" customWidth="1"/>
+    <col min="11534" max="11534" width="11.375" style="1" customWidth="1"/>
+    <col min="11535" max="11538" width="11.125" style="1" customWidth="1"/>
+    <col min="11539" max="11776" width="9.125" style="1"/>
+    <col min="11777" max="11777" width="12.875" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.75" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="12.875" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" style="1" customWidth="1"/>
     <col min="11781" max="11783" width="11" style="1" customWidth="1"/>
-    <col min="11784" max="11785" width="10.69921875" style="1" customWidth="1"/>
+    <col min="11784" max="11785" width="10.75" style="1" customWidth="1"/>
     <col min="11786" max="11786" width="4" style="1" customWidth="1"/>
-    <col min="11787" max="11789" width="11.09765625" style="1" customWidth="1"/>
-    <col min="11790" max="11790" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11791" max="11794" width="11.09765625" style="1" customWidth="1"/>
-    <col min="11795" max="12032" width="9.09765625" style="1"/>
-    <col min="12033" max="12033" width="12.8984375" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="10.69921875" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="12.8984375" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="12.09765625" style="1" customWidth="1"/>
+    <col min="11787" max="11789" width="11.125" style="1" customWidth="1"/>
+    <col min="11790" max="11790" width="11.375" style="1" customWidth="1"/>
+    <col min="11791" max="11794" width="11.125" style="1" customWidth="1"/>
+    <col min="11795" max="12032" width="9.125" style="1"/>
+    <col min="12033" max="12033" width="12.875" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.75" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="12.875" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" style="1" customWidth="1"/>
     <col min="12037" max="12039" width="11" style="1" customWidth="1"/>
-    <col min="12040" max="12041" width="10.69921875" style="1" customWidth="1"/>
+    <col min="12040" max="12041" width="10.75" style="1" customWidth="1"/>
     <col min="12042" max="12042" width="4" style="1" customWidth="1"/>
-    <col min="12043" max="12045" width="11.09765625" style="1" customWidth="1"/>
-    <col min="12046" max="12046" width="11.3984375" style="1" customWidth="1"/>
-    <col min="12047" max="12050" width="11.09765625" style="1" customWidth="1"/>
-    <col min="12051" max="12288" width="9.09765625" style="1"/>
-    <col min="12289" max="12289" width="12.8984375" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="10.69921875" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="12.8984375" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="12.09765625" style="1" customWidth="1"/>
+    <col min="12043" max="12045" width="11.125" style="1" customWidth="1"/>
+    <col min="12046" max="12046" width="11.375" style="1" customWidth="1"/>
+    <col min="12047" max="12050" width="11.125" style="1" customWidth="1"/>
+    <col min="12051" max="12288" width="9.125" style="1"/>
+    <col min="12289" max="12289" width="12.875" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.75" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="12.875" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" style="1" customWidth="1"/>
     <col min="12293" max="12295" width="11" style="1" customWidth="1"/>
-    <col min="12296" max="12297" width="10.69921875" style="1" customWidth="1"/>
+    <col min="12296" max="12297" width="10.75" style="1" customWidth="1"/>
     <col min="12298" max="12298" width="4" style="1" customWidth="1"/>
-    <col min="12299" max="12301" width="11.09765625" style="1" customWidth="1"/>
-    <col min="12302" max="12302" width="11.3984375" style="1" customWidth="1"/>
-    <col min="12303" max="12306" width="11.09765625" style="1" customWidth="1"/>
-    <col min="12307" max="12544" width="9.09765625" style="1"/>
-    <col min="12545" max="12545" width="12.8984375" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="10.69921875" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="12.8984375" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="12.09765625" style="1" customWidth="1"/>
+    <col min="12299" max="12301" width="11.125" style="1" customWidth="1"/>
+    <col min="12302" max="12302" width="11.375" style="1" customWidth="1"/>
+    <col min="12303" max="12306" width="11.125" style="1" customWidth="1"/>
+    <col min="12307" max="12544" width="9.125" style="1"/>
+    <col min="12545" max="12545" width="12.875" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.75" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="12.875" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" style="1" customWidth="1"/>
     <col min="12549" max="12551" width="11" style="1" customWidth="1"/>
-    <col min="12552" max="12553" width="10.69921875" style="1" customWidth="1"/>
+    <col min="12552" max="12553" width="10.75" style="1" customWidth="1"/>
     <col min="12554" max="12554" width="4" style="1" customWidth="1"/>
-    <col min="12555" max="12557" width="11.09765625" style="1" customWidth="1"/>
-    <col min="12558" max="12558" width="11.3984375" style="1" customWidth="1"/>
-    <col min="12559" max="12562" width="11.09765625" style="1" customWidth="1"/>
-    <col min="12563" max="12800" width="9.09765625" style="1"/>
-    <col min="12801" max="12801" width="12.8984375" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="10.69921875" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="12.8984375" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="12.09765625" style="1" customWidth="1"/>
+    <col min="12555" max="12557" width="11.125" style="1" customWidth="1"/>
+    <col min="12558" max="12558" width="11.375" style="1" customWidth="1"/>
+    <col min="12559" max="12562" width="11.125" style="1" customWidth="1"/>
+    <col min="12563" max="12800" width="9.125" style="1"/>
+    <col min="12801" max="12801" width="12.875" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.75" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="12.875" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" style="1" customWidth="1"/>
     <col min="12805" max="12807" width="11" style="1" customWidth="1"/>
-    <col min="12808" max="12809" width="10.69921875" style="1" customWidth="1"/>
+    <col min="12808" max="12809" width="10.75" style="1" customWidth="1"/>
     <col min="12810" max="12810" width="4" style="1" customWidth="1"/>
-    <col min="12811" max="12813" width="11.09765625" style="1" customWidth="1"/>
-    <col min="12814" max="12814" width="11.3984375" style="1" customWidth="1"/>
-    <col min="12815" max="12818" width="11.09765625" style="1" customWidth="1"/>
-    <col min="12819" max="13056" width="9.09765625" style="1"/>
-    <col min="13057" max="13057" width="12.8984375" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="10.69921875" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="12.8984375" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="12.09765625" style="1" customWidth="1"/>
+    <col min="12811" max="12813" width="11.125" style="1" customWidth="1"/>
+    <col min="12814" max="12814" width="11.375" style="1" customWidth="1"/>
+    <col min="12815" max="12818" width="11.125" style="1" customWidth="1"/>
+    <col min="12819" max="13056" width="9.125" style="1"/>
+    <col min="13057" max="13057" width="12.875" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.75" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="12.875" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" style="1" customWidth="1"/>
     <col min="13061" max="13063" width="11" style="1" customWidth="1"/>
-    <col min="13064" max="13065" width="10.69921875" style="1" customWidth="1"/>
+    <col min="13064" max="13065" width="10.75" style="1" customWidth="1"/>
     <col min="13066" max="13066" width="4" style="1" customWidth="1"/>
-    <col min="13067" max="13069" width="11.09765625" style="1" customWidth="1"/>
-    <col min="13070" max="13070" width="11.3984375" style="1" customWidth="1"/>
-    <col min="13071" max="13074" width="11.09765625" style="1" customWidth="1"/>
-    <col min="13075" max="13312" width="9.09765625" style="1"/>
-    <col min="13313" max="13313" width="12.8984375" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="10.69921875" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="12.8984375" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="12.09765625" style="1" customWidth="1"/>
+    <col min="13067" max="13069" width="11.125" style="1" customWidth="1"/>
+    <col min="13070" max="13070" width="11.375" style="1" customWidth="1"/>
+    <col min="13071" max="13074" width="11.125" style="1" customWidth="1"/>
+    <col min="13075" max="13312" width="9.125" style="1"/>
+    <col min="13313" max="13313" width="12.875" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.75" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="12.875" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" style="1" customWidth="1"/>
     <col min="13317" max="13319" width="11" style="1" customWidth="1"/>
-    <col min="13320" max="13321" width="10.69921875" style="1" customWidth="1"/>
+    <col min="13320" max="13321" width="10.75" style="1" customWidth="1"/>
     <col min="13322" max="13322" width="4" style="1" customWidth="1"/>
-    <col min="13323" max="13325" width="11.09765625" style="1" customWidth="1"/>
-    <col min="13326" max="13326" width="11.3984375" style="1" customWidth="1"/>
-    <col min="13327" max="13330" width="11.09765625" style="1" customWidth="1"/>
-    <col min="13331" max="13568" width="9.09765625" style="1"/>
-    <col min="13569" max="13569" width="12.8984375" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="10.69921875" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="12.8984375" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="12.09765625" style="1" customWidth="1"/>
+    <col min="13323" max="13325" width="11.125" style="1" customWidth="1"/>
+    <col min="13326" max="13326" width="11.375" style="1" customWidth="1"/>
+    <col min="13327" max="13330" width="11.125" style="1" customWidth="1"/>
+    <col min="13331" max="13568" width="9.125" style="1"/>
+    <col min="13569" max="13569" width="12.875" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.75" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="12.875" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" style="1" customWidth="1"/>
     <col min="13573" max="13575" width="11" style="1" customWidth="1"/>
-    <col min="13576" max="13577" width="10.69921875" style="1" customWidth="1"/>
+    <col min="13576" max="13577" width="10.75" style="1" customWidth="1"/>
     <col min="13578" max="13578" width="4" style="1" customWidth="1"/>
-    <col min="13579" max="13581" width="11.09765625" style="1" customWidth="1"/>
-    <col min="13582" max="13582" width="11.3984375" style="1" customWidth="1"/>
-    <col min="13583" max="13586" width="11.09765625" style="1" customWidth="1"/>
-    <col min="13587" max="13824" width="9.09765625" style="1"/>
-    <col min="13825" max="13825" width="12.8984375" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="10.69921875" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="12.8984375" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="12.09765625" style="1" customWidth="1"/>
+    <col min="13579" max="13581" width="11.125" style="1" customWidth="1"/>
+    <col min="13582" max="13582" width="11.375" style="1" customWidth="1"/>
+    <col min="13583" max="13586" width="11.125" style="1" customWidth="1"/>
+    <col min="13587" max="13824" width="9.125" style="1"/>
+    <col min="13825" max="13825" width="12.875" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.75" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="12.875" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" style="1" customWidth="1"/>
     <col min="13829" max="13831" width="11" style="1" customWidth="1"/>
-    <col min="13832" max="13833" width="10.69921875" style="1" customWidth="1"/>
+    <col min="13832" max="13833" width="10.75" style="1" customWidth="1"/>
     <col min="13834" max="13834" width="4" style="1" customWidth="1"/>
-    <col min="13835" max="13837" width="11.09765625" style="1" customWidth="1"/>
-    <col min="13838" max="13838" width="11.3984375" style="1" customWidth="1"/>
-    <col min="13839" max="13842" width="11.09765625" style="1" customWidth="1"/>
-    <col min="13843" max="14080" width="9.09765625" style="1"/>
-    <col min="14081" max="14081" width="12.8984375" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="10.69921875" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="12.8984375" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="12.09765625" style="1" customWidth="1"/>
+    <col min="13835" max="13837" width="11.125" style="1" customWidth="1"/>
+    <col min="13838" max="13838" width="11.375" style="1" customWidth="1"/>
+    <col min="13839" max="13842" width="11.125" style="1" customWidth="1"/>
+    <col min="13843" max="14080" width="9.125" style="1"/>
+    <col min="14081" max="14081" width="12.875" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.75" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="12.875" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" style="1" customWidth="1"/>
     <col min="14085" max="14087" width="11" style="1" customWidth="1"/>
-    <col min="14088" max="14089" width="10.69921875" style="1" customWidth="1"/>
+    <col min="14088" max="14089" width="10.75" style="1" customWidth="1"/>
     <col min="14090" max="14090" width="4" style="1" customWidth="1"/>
-    <col min="14091" max="14093" width="11.09765625" style="1" customWidth="1"/>
-    <col min="14094" max="14094" width="11.3984375" style="1" customWidth="1"/>
-    <col min="14095" max="14098" width="11.09765625" style="1" customWidth="1"/>
-    <col min="14099" max="14336" width="9.09765625" style="1"/>
-    <col min="14337" max="14337" width="12.8984375" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="10.69921875" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="12.8984375" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="12.09765625" style="1" customWidth="1"/>
+    <col min="14091" max="14093" width="11.125" style="1" customWidth="1"/>
+    <col min="14094" max="14094" width="11.375" style="1" customWidth="1"/>
+    <col min="14095" max="14098" width="11.125" style="1" customWidth="1"/>
+    <col min="14099" max="14336" width="9.125" style="1"/>
+    <col min="14337" max="14337" width="12.875" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.75" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="12.875" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" style="1" customWidth="1"/>
     <col min="14341" max="14343" width="11" style="1" customWidth="1"/>
-    <col min="14344" max="14345" width="10.69921875" style="1" customWidth="1"/>
+    <col min="14344" max="14345" width="10.75" style="1" customWidth="1"/>
     <col min="14346" max="14346" width="4" style="1" customWidth="1"/>
-    <col min="14347" max="14349" width="11.09765625" style="1" customWidth="1"/>
-    <col min="14350" max="14350" width="11.3984375" style="1" customWidth="1"/>
-    <col min="14351" max="14354" width="11.09765625" style="1" customWidth="1"/>
-    <col min="14355" max="14592" width="9.09765625" style="1"/>
-    <col min="14593" max="14593" width="12.8984375" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="10.69921875" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="12.8984375" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="12.09765625" style="1" customWidth="1"/>
+    <col min="14347" max="14349" width="11.125" style="1" customWidth="1"/>
+    <col min="14350" max="14350" width="11.375" style="1" customWidth="1"/>
+    <col min="14351" max="14354" width="11.125" style="1" customWidth="1"/>
+    <col min="14355" max="14592" width="9.125" style="1"/>
+    <col min="14593" max="14593" width="12.875" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.75" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="12.875" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" style="1" customWidth="1"/>
     <col min="14597" max="14599" width="11" style="1" customWidth="1"/>
-    <col min="14600" max="14601" width="10.69921875" style="1" customWidth="1"/>
+    <col min="14600" max="14601" width="10.75" style="1" customWidth="1"/>
     <col min="14602" max="14602" width="4" style="1" customWidth="1"/>
-    <col min="14603" max="14605" width="11.09765625" style="1" customWidth="1"/>
-    <col min="14606" max="14606" width="11.3984375" style="1" customWidth="1"/>
-    <col min="14607" max="14610" width="11.09765625" style="1" customWidth="1"/>
-    <col min="14611" max="14848" width="9.09765625" style="1"/>
-    <col min="14849" max="14849" width="12.8984375" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="10.69921875" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="12.8984375" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="12.09765625" style="1" customWidth="1"/>
+    <col min="14603" max="14605" width="11.125" style="1" customWidth="1"/>
+    <col min="14606" max="14606" width="11.375" style="1" customWidth="1"/>
+    <col min="14607" max="14610" width="11.125" style="1" customWidth="1"/>
+    <col min="14611" max="14848" width="9.125" style="1"/>
+    <col min="14849" max="14849" width="12.875" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.75" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="12.875" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" style="1" customWidth="1"/>
     <col min="14853" max="14855" width="11" style="1" customWidth="1"/>
-    <col min="14856" max="14857" width="10.69921875" style="1" customWidth="1"/>
+    <col min="14856" max="14857" width="10.75" style="1" customWidth="1"/>
     <col min="14858" max="14858" width="4" style="1" customWidth="1"/>
-    <col min="14859" max="14861" width="11.09765625" style="1" customWidth="1"/>
-    <col min="14862" max="14862" width="11.3984375" style="1" customWidth="1"/>
-    <col min="14863" max="14866" width="11.09765625" style="1" customWidth="1"/>
-    <col min="14867" max="15104" width="9.09765625" style="1"/>
-    <col min="15105" max="15105" width="12.8984375" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="10.69921875" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="12.8984375" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="12.09765625" style="1" customWidth="1"/>
+    <col min="14859" max="14861" width="11.125" style="1" customWidth="1"/>
+    <col min="14862" max="14862" width="11.375" style="1" customWidth="1"/>
+    <col min="14863" max="14866" width="11.125" style="1" customWidth="1"/>
+    <col min="14867" max="15104" width="9.125" style="1"/>
+    <col min="15105" max="15105" width="12.875" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.75" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="12.875" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" style="1" customWidth="1"/>
     <col min="15109" max="15111" width="11" style="1" customWidth="1"/>
-    <col min="15112" max="15113" width="10.69921875" style="1" customWidth="1"/>
+    <col min="15112" max="15113" width="10.75" style="1" customWidth="1"/>
     <col min="15114" max="15114" width="4" style="1" customWidth="1"/>
-    <col min="15115" max="15117" width="11.09765625" style="1" customWidth="1"/>
-    <col min="15118" max="15118" width="11.3984375" style="1" customWidth="1"/>
-    <col min="15119" max="15122" width="11.09765625" style="1" customWidth="1"/>
-    <col min="15123" max="15360" width="9.09765625" style="1"/>
-    <col min="15361" max="15361" width="12.8984375" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="10.69921875" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="12.8984375" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="12.09765625" style="1" customWidth="1"/>
+    <col min="15115" max="15117" width="11.125" style="1" customWidth="1"/>
+    <col min="15118" max="15118" width="11.375" style="1" customWidth="1"/>
+    <col min="15119" max="15122" width="11.125" style="1" customWidth="1"/>
+    <col min="15123" max="15360" width="9.125" style="1"/>
+    <col min="15361" max="15361" width="12.875" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.75" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="12.875" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" style="1" customWidth="1"/>
     <col min="15365" max="15367" width="11" style="1" customWidth="1"/>
-    <col min="15368" max="15369" width="10.69921875" style="1" customWidth="1"/>
+    <col min="15368" max="15369" width="10.75" style="1" customWidth="1"/>
     <col min="15370" max="15370" width="4" style="1" customWidth="1"/>
-    <col min="15371" max="15373" width="11.09765625" style="1" customWidth="1"/>
-    <col min="15374" max="15374" width="11.3984375" style="1" customWidth="1"/>
-    <col min="15375" max="15378" width="11.09765625" style="1" customWidth="1"/>
-    <col min="15379" max="15616" width="9.09765625" style="1"/>
-    <col min="15617" max="15617" width="12.8984375" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="10.69921875" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="12.8984375" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="12.09765625" style="1" customWidth="1"/>
+    <col min="15371" max="15373" width="11.125" style="1" customWidth="1"/>
+    <col min="15374" max="15374" width="11.375" style="1" customWidth="1"/>
+    <col min="15375" max="15378" width="11.125" style="1" customWidth="1"/>
+    <col min="15379" max="15616" width="9.125" style="1"/>
+    <col min="15617" max="15617" width="12.875" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.75" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="12.875" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" style="1" customWidth="1"/>
     <col min="15621" max="15623" width="11" style="1" customWidth="1"/>
-    <col min="15624" max="15625" width="10.69921875" style="1" customWidth="1"/>
+    <col min="15624" max="15625" width="10.75" style="1" customWidth="1"/>
     <col min="15626" max="15626" width="4" style="1" customWidth="1"/>
-    <col min="15627" max="15629" width="11.09765625" style="1" customWidth="1"/>
-    <col min="15630" max="15630" width="11.3984375" style="1" customWidth="1"/>
-    <col min="15631" max="15634" width="11.09765625" style="1" customWidth="1"/>
-    <col min="15635" max="15872" width="9.09765625" style="1"/>
-    <col min="15873" max="15873" width="12.8984375" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="10.69921875" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="12.8984375" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="12.09765625" style="1" customWidth="1"/>
+    <col min="15627" max="15629" width="11.125" style="1" customWidth="1"/>
+    <col min="15630" max="15630" width="11.375" style="1" customWidth="1"/>
+    <col min="15631" max="15634" width="11.125" style="1" customWidth="1"/>
+    <col min="15635" max="15872" width="9.125" style="1"/>
+    <col min="15873" max="15873" width="12.875" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.75" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="12.875" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" style="1" customWidth="1"/>
     <col min="15877" max="15879" width="11" style="1" customWidth="1"/>
-    <col min="15880" max="15881" width="10.69921875" style="1" customWidth="1"/>
+    <col min="15880" max="15881" width="10.75" style="1" customWidth="1"/>
     <col min="15882" max="15882" width="4" style="1" customWidth="1"/>
-    <col min="15883" max="15885" width="11.09765625" style="1" customWidth="1"/>
-    <col min="15886" max="15886" width="11.3984375" style="1" customWidth="1"/>
-    <col min="15887" max="15890" width="11.09765625" style="1" customWidth="1"/>
-    <col min="15891" max="16128" width="9.09765625" style="1"/>
-    <col min="16129" max="16129" width="12.8984375" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="10.69921875" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="12.8984375" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="12.09765625" style="1" customWidth="1"/>
+    <col min="15883" max="15885" width="11.125" style="1" customWidth="1"/>
+    <col min="15886" max="15886" width="11.375" style="1" customWidth="1"/>
+    <col min="15887" max="15890" width="11.125" style="1" customWidth="1"/>
+    <col min="15891" max="16128" width="9.125" style="1"/>
+    <col min="16129" max="16129" width="12.875" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.75" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="12.875" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" style="1" customWidth="1"/>
     <col min="16133" max="16135" width="11" style="1" customWidth="1"/>
-    <col min="16136" max="16137" width="10.69921875" style="1" customWidth="1"/>
+    <col min="16136" max="16137" width="10.75" style="1" customWidth="1"/>
     <col min="16138" max="16138" width="4" style="1" customWidth="1"/>
-    <col min="16139" max="16141" width="11.09765625" style="1" customWidth="1"/>
-    <col min="16142" max="16142" width="11.3984375" style="1" customWidth="1"/>
-    <col min="16143" max="16146" width="11.09765625" style="1" customWidth="1"/>
-    <col min="16147" max="16384" width="9.09765625" style="1"/>
+    <col min="16139" max="16141" width="11.125" style="1" customWidth="1"/>
+    <col min="16142" max="16142" width="11.375" style="1" customWidth="1"/>
+    <col min="16143" max="16146" width="11.125" style="1" customWidth="1"/>
+    <col min="16147" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.8"/>
-    <row r="2" spans="1:18" s="5" customFormat="1" ht="23" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:18" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2472,815 +2466,806 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:18" ht="10.5" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="97"/>
+      <c r="E4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="K4" s="14" t="s">
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
+      <c r="K4" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="K5" s="21" t="s">
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="129"/>
+    </row>
+    <row r="5" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="K5" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25" t="s">
+      <c r="L5" s="131"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27"/>
-    </row>
-    <row r="6" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-      <c r="K6" s="32" t="s">
+      <c r="P5" s="115"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="K6" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34" t="s">
+      <c r="L6" s="109"/>
+      <c r="M6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36" t="s">
+      <c r="N6" s="21"/>
+      <c r="O6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36" t="s">
+      <c r="P6" s="21"/>
+      <c r="Q6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="37"/>
-    </row>
-    <row r="7" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="R6" s="23"/>
+    </row>
+    <row r="7" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
       <c r="A7" s="6"/>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="40" t="s">
+      <c r="L7" s="120"/>
+      <c r="M7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="42" t="s">
+      <c r="N7" s="25"/>
+      <c r="O7" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="45"/>
-    </row>
-    <row r="8" spans="1:18" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A8" s="46" t="s">
+      <c r="P7" s="113"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="27"/>
+    </row>
+    <row r="8" spans="1:18" s="8" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="51"/>
-    </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A9" s="52" t="s">
+      <c r="R8" s="33"/>
+    </row>
+    <row r="9" spans="1:18" s="8" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="58" t="s">
+      <c r="L9" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="25" t="s">
+      <c r="M9" s="41"/>
+      <c r="N9" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="60" t="s">
+      <c r="O9" s="115"/>
+      <c r="P9" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="62"/>
-    </row>
-    <row r="10" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="63" t="s">
+      <c r="Q9" s="122"/>
+      <c r="R9" s="123"/>
+    </row>
+    <row r="10" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A10" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="K10" s="66" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="K10" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="67" t="s">
+      <c r="M10" s="13"/>
+      <c r="N10" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="68" t="s">
+      <c r="O10" s="109"/>
+      <c r="P10" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="70"/>
-    </row>
-    <row r="11" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
-      <c r="K11" s="66" t="s">
+      <c r="Q10" s="125"/>
+      <c r="R10" s="126"/>
+    </row>
+    <row r="11" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="K11" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="67" t="s">
+      <c r="M11" s="13"/>
+      <c r="N11" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="67" t="s">
+      <c r="O11" s="109"/>
+      <c r="P11" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="75"/>
-    </row>
-    <row r="12" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="78"/>
-      <c r="K12" s="79" t="s">
+      <c r="Q11" s="110"/>
+      <c r="R11" s="111"/>
+    </row>
+    <row r="12" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="K12" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="42" t="s">
+      <c r="M12" s="25"/>
+      <c r="N12" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="43"/>
-      <c r="P12" s="67" t="s">
+      <c r="O12" s="113"/>
+      <c r="P12" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="75"/>
-    </row>
-    <row r="13" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="78"/>
-      <c r="K13" s="50" t="s">
+      <c r="Q12" s="110"/>
+      <c r="R12" s="111"/>
+    </row>
+    <row r="13" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="K13" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="51"/>
-    </row>
-    <row r="14" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
-      <c r="K14" s="80" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="K14" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="81" t="s">
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="81" t="s">
+      <c r="P14" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="81" t="s">
+      <c r="Q14" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="82" t="s">
+      <c r="R14" s="55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78"/>
-      <c r="K15" s="83" t="s">
+    <row r="15" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="K15" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="27"/>
-    </row>
-    <row r="16" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
-      <c r="K16" s="83" t="s">
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="15"/>
+    </row>
+    <row r="16" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="K16" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="27"/>
-    </row>
-    <row r="17" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
-      <c r="K17" s="85" t="s">
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="K17" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="45"/>
-    </row>
-    <row r="18" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A18" s="87"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="31"/>
-      <c r="K18" s="50" t="s">
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="27"/>
+    </row>
+    <row r="18" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="19"/>
+      <c r="K18" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="51"/>
-    </row>
-    <row r="19" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A19" s="89" t="s">
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="33"/>
+    </row>
+    <row r="19" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A19" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="31"/>
-      <c r="K19" s="80" t="s">
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="19"/>
+      <c r="K19" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="25" t="s">
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="92" t="s">
+      <c r="P19" s="115"/>
+      <c r="Q19" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="R19" s="93"/>
-    </row>
-    <row r="20" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="R19" s="117"/>
+    </row>
+    <row r="20" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
       <c r="A20" s="6"/>
-      <c r="K20" s="83" t="s">
+      <c r="K20" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="27"/>
-    </row>
-    <row r="21" spans="1:18" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A21" s="8" t="s">
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" s="8" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A21" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="97"/>
+      <c r="C21" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="97"/>
+      <c r="E21" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="97"/>
+      <c r="G21" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="K21" s="83" t="s">
+      <c r="H21" s="99"/>
+      <c r="I21" s="100"/>
+      <c r="K21" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="27"/>
-    </row>
-    <row r="22" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
-      <c r="K22" s="96" t="s">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="15"/>
+    </row>
+    <row r="22" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="K22" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="L22" s="97"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="34" t="s">
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="O22" s="99"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="100" t="s">
+      <c r="O22" s="67"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="68" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="23" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
       <c r="A23" s="6"/>
-      <c r="K23" s="85" t="s">
+      <c r="K23" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="44"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="40" t="s">
+      <c r="L23" s="26"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="O23" s="101"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="45"/>
-    </row>
-    <row r="24" spans="1:18" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A24" s="46" t="s">
+      <c r="O23" s="69"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="27"/>
+    </row>
+    <row r="24" spans="1:18" s="8" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="R24" s="51"/>
-    </row>
-    <row r="25" spans="1:18" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A25" s="52" t="s">
+      <c r="R24" s="33"/>
+    </row>
+    <row r="25" spans="1:18" s="8" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="55" t="s">
+      <c r="H25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="56" t="s">
+      <c r="I25" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="102" t="s">
+      <c r="K25" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="104"/>
-    </row>
-    <row r="26" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A26" s="63" t="s">
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="103"/>
+    </row>
+    <row r="26" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A26" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
-      <c r="K26" s="105" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="K26" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="106"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="108" t="s">
+      <c r="L26" s="71"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="O26" s="109"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="109" t="s">
+      <c r="O26" s="105"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="R26" s="111"/>
-    </row>
-    <row r="27" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A27" s="71"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
-      <c r="K27" s="112" t="s">
+      <c r="R26" s="107"/>
+    </row>
+    <row r="27" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="K27" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="97"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="116"/>
-    </row>
-    <row r="28" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A28" s="76"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="78"/>
-      <c r="K28" s="112" t="s">
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="77"/>
+    </row>
+    <row r="28" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="K28" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="97"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="114"/>
-      <c r="R28" s="116"/>
-    </row>
-    <row r="29" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A29" s="76"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="78"/>
-      <c r="K29" s="117" t="s">
+      <c r="L28" s="65"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="77"/>
+    </row>
+    <row r="29" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="K29" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="118"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="118"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="121"/>
-    </row>
-    <row r="30" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="78"/>
-      <c r="K30" s="122" t="s">
+      <c r="L29" s="79"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="82"/>
+    </row>
+    <row r="30" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="K30" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="L30" s="30"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="31"/>
-    </row>
-    <row r="31" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A31" s="76"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="78"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="20"/>
-    </row>
-    <row r="32" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A32" s="76"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="78"/>
-      <c r="K32" s="123" t="s">
+      <c r="L30" s="18"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="19"/>
+    </row>
+    <row r="31" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
+      <c r="K32" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="M32" s="124"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="124"/>
-      <c r="Q32" s="124"/>
-      <c r="R32" s="125"/>
-    </row>
-    <row r="33" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A33" s="76"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="78"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="90"/>
+    </row>
+    <row r="33" spans="1:18" ht="21.75" customHeight="1">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
       <c r="K33" s="6" t="s">
         <v>72</v>
       </c>
       <c r="R33" s="7"/>
     </row>
-    <row r="34" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A34" s="87"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="31"/>
+    <row r="34" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A34" s="60"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="19"/>
       <c r="K34" s="6" t="s">
         <v>73</v>
       </c>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A35" s="89" t="s">
+    <row r="35" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A35" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="31"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="126" t="s">
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="19"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="85" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="20.5" x14ac:dyDescent="0.65">
-      <c r="A36" s="127" t="s">
+    <row r="36" spans="1:18" ht="20.399999999999999">
+      <c r="A36" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="129"/>
-      <c r="Q36" s="130" t="s">
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="88"/>
+      <c r="Q36" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="R36" s="131"/>
+      <c r="R36" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:R4"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="Q19:R19"/>
@@ -3291,13 +3276,22 @@
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="P10:R10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="Q36:R36"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.16" right="0.16" top="0.14000000000000001" bottom="0.13" header="0.14000000000000001" footer="0.13"/>
